--- a/QueriesExcel/10.xlsx
+++ b/QueriesExcel/10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE6EBEB5-C3AC-47A0-B6FD-FCDF0DF0D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8F488-C52E-47E4-B9F3-EA29EF08EEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{535798EC-AD50-4409-9196-0C9DD83A7B9A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="153" r:id="rId2"/>
+    <pivotCache cacheId="53" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -798,7 +798,49 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
@@ -816,7 +858,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.025871874997" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{CDF5D5F8-1835-475A-826A-96F22B5D5BE1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.031014236112" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{CDF5D5F8-1835-475A-826A-96F22B5D5BE1}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="9">
     <cacheField name="[Order Date].[Week Of Month].[Week Of Month]" caption="Week Of Month" numFmtId="0" hierarchy="97" level="1">
@@ -1146,7 +1188,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CFA870D-FEB8-42F2-8263-B17D99A5B323}" name="PivotTable1" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CFA870D-FEB8-42F2-8263-B17D99A5B323}" name="PivotTable1" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A6:T22" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -1369,7 +1411,7 @@
     <dataField fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="14">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -1886,7 +1928,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F44" sqref="E44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,25 +1951,126 @@
     <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -2154,13 +2297,13 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2172,7 +2315,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2188,7 +2331,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -2196,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2216,7 +2359,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -2225,7 +2368,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>2337.5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2244,7 +2387,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>2337.5</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -2255,7 +2398,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>46.875</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2264,7 +2407,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>868.75</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2274,7 +2417,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>915.625</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2284,22 +2427,22 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>2105</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>263.125</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2310,7 +2453,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>3183.125</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2323,7 +2466,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>697.5</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2338,7 +2481,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>697.5</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -2361,12 +2504,12 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -2386,17 +2529,17 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1137.5</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>1462.5</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2421,10 +2564,10 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>1097.5</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
+        <v>1097.5</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2443,7 +2586,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2452,7 +2595,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2476,11 +2619,11 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>55.875</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1">
-        <v>0</v>
+        <v>55.875</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2488,61 +2631,61 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>2337.5</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>46.875</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>697.5</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>2105</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>263.125</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>868.75</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>1137.5</v>
       </c>
       <c r="O22" s="1">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>55.875</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>1097.5</v>
       </c>
       <c r="T22" s="1">
-        <v>0</v>
+        <v>12112.625</v>
       </c>
     </row>
   </sheetData>
